--- a/biology/Zoologie/Barleeia/Barleeia.xlsx
+++ b/biology/Zoologie/Barleeia/Barleeia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barleeia est un genre de mollusques gastéropodes de la famille des Barleeiidae. L'espèce-type est Barleeia unifasciata[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barleeia est un genre de mollusques gastéropodes de la famille des Barleeiidae. L'espèce-type est Barleeia unifasciata.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 octobre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (30 octobre 2017) :
 Barleeia aemilii Gofas, 1995
 Barleeia albicolor Rolán &amp; Gori, 2014
 Barleeia alderi (Carpenter, 1857)
@@ -594,9 +608,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Barleeia a été choisi en l'honneur de Mr. Barlee qui aurait fourni plusieurs spécimens à l'auteur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Barleeia a été choisi en l'honneur de Mr. Barlee qui aurait fourni plusieurs spécimens à l'auteur.
 </t>
         </is>
       </c>
@@ -625,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William Clark, « On the Rissoa rubra », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 12, no 68,‎ 26 juin 1853, p. 107–110 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/03745485709496280, lire en ligne)</t>
         </is>
